--- a/SubRES_TMPL/SubRES_New-IND.xlsx
+++ b/SubRES_TMPL/SubRES_New-IND.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Migrating Task\Training material_migrated\DemoS_009\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Model_Training_Adv\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEBD9BB7-8936-4FCA-B41C-C445FB63134D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FAB7B9-0D00-4A5A-BBA2-4E8F5572E9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IND" sheetId="5" r:id="rId1"/>
@@ -22,12 +22,16 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,13 +39,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
     <author>Gary Goldstein</author>
   </authors>
   <commentList>
-    <comment ref="P3" authorId="0" shapeId="0">
+    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="0" shapeId="0">
+    <comment ref="R3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -197,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -429,7 +433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K12" authorId="1" shapeId="0">
+    <comment ref="K12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -543,7 +547,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O12" authorId="0" shapeId="0">
+    <comment ref="O12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -616,7 +620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P12" authorId="0" shapeId="0">
+    <comment ref="P12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -700,7 +704,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q12" authorId="0" shapeId="0">
+    <comment ref="Q12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -753,7 +757,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R12" authorId="0" shapeId="0">
+    <comment ref="R12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1078,12 +1082,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="187" formatCode="0.0"/>
-    <numFmt numFmtId="208" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="\Te\x\t"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1272,9 +1276,9 @@
   <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1324,7 +1328,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="11" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="4" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="9" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1366,71 +1370,71 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="208" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="208" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="208" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="208" fontId="3" fillId="2" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="208" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="208" fontId="9" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="208" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="208" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="208" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="208" fontId="3" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="208" fontId="9" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="208" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="208" fontId="9" fillId="0" borderId="6" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="208" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="208" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="208" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="208" fontId="6" fillId="3" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="6" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="208" fontId="12" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="208" fontId="12" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="208" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="208" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="208" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="208" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="26">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
-    <cellStyle name="Comma 2" xfId="2"/>
-    <cellStyle name="Comma 2 2" xfId="3"/>
-    <cellStyle name="Comma 3" xfId="4"/>
-    <cellStyle name="Hyperlink 2" xfId="5"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Comma 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="6"/>
-    <cellStyle name="Normal 2" xfId="7"/>
-    <cellStyle name="Normal 3" xfId="8"/>
-    <cellStyle name="Normal 4" xfId="9"/>
-    <cellStyle name="Normal 4 2" xfId="10"/>
-    <cellStyle name="Normal 5" xfId="11"/>
-    <cellStyle name="Normal 8" xfId="12"/>
-    <cellStyle name="Normal 9 2" xfId="13"/>
-    <cellStyle name="Normale_B2020" xfId="14"/>
-    <cellStyle name="Percent 2" xfId="15"/>
-    <cellStyle name="Percent 3" xfId="16"/>
-    <cellStyle name="Percent 3 2" xfId="17"/>
-    <cellStyle name="Percent 3 3" xfId="18"/>
-    <cellStyle name="Percent 4" xfId="19"/>
-    <cellStyle name="Percent 4 2" xfId="20"/>
-    <cellStyle name="Percent 4 3" xfId="21"/>
-    <cellStyle name="Percent 5" xfId="22"/>
-    <cellStyle name="Percent 6" xfId="23"/>
-    <cellStyle name="Percent 7" xfId="24"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="25"/>
+    <cellStyle name="Normal 10" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 4" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 5" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 8" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 9 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normale_B2020" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Percent 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Percent 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Percent 3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Percent 3 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Percent 4" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Percent 4 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Percent 4 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Percent 5" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Percent 6" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Percent 7" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1900,37 +1904,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>62</v>
       </c>
@@ -1948,7 +1952,7 @@
       <c r="Q2" s="41"/>
       <c r="R2" s="41"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1999,7 +2003,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>39</v>
       </c>
@@ -2040,7 +2044,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="str">
         <f>L8</f>
         <v>IDMIIS</v>
@@ -2083,7 +2087,7 @@
       <c r="Q5" s="44"/>
       <c r="R5" s="44"/>
     </row>
-    <row r="6" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
         <v>55</v>
@@ -2114,7 +2118,7 @@
       <c r="Q6" s="41"/>
       <c r="R6" s="41"/>
     </row>
-    <row r="7" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
         <v>47</v>
@@ -2145,7 +2149,7 @@
       <c r="Q7" s="41"/>
       <c r="R7" s="41"/>
     </row>
-    <row r="8" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
         <v>43</v>
@@ -2178,7 +2182,7 @@
       <c r="Q8" s="41"/>
       <c r="R8" s="41"/>
     </row>
-    <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="str">
@@ -2198,7 +2202,7 @@
       <c r="N9" s="34"/>
       <c r="O9" s="34"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K11" s="40" t="s">
         <v>7</v>
       </c>
@@ -2210,7 +2214,7 @@
       <c r="Q11" s="46"/>
       <c r="R11" s="46"/>
     </row>
-    <row r="12" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>61</v>
       </c>
@@ -2242,7 +2246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
@@ -2293,7 +2297,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>39</v>
       </c>
@@ -2326,7 +2330,7 @@
       <c r="Q14" s="44"/>
       <c r="R14" s="44"/>
     </row>
-    <row r="15" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="str">
         <f>L7</f>
         <v>ITIISBOF</v>
@@ -2365,7 +2369,7 @@
       <c r="Q15" s="41"/>
       <c r="R15" s="41"/>
     </row>
-    <row r="16" spans="2:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="9" t="s">
         <v>47</v>
@@ -2394,7 +2398,7 @@
       <c r="Q16" s="41"/>
       <c r="R16" s="41"/>
     </row>
-    <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
       <c r="C17" s="9" t="s">
         <v>43</v>
@@ -2425,7 +2429,7 @@
       <c r="Q17" s="51"/>
       <c r="R17" s="51"/>
     </row>
-    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
         <v>52</v>
@@ -2443,7 +2447,7 @@
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
     </row>
-    <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10" t="str">
@@ -2462,12 +2466,12 @@
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
     </row>
-    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="L20" s="9"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
     </row>
-    <row r="22" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
         <v>54</v>
       </c>
@@ -2478,7 +2482,7 @@
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
     </row>
-    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>1</v>
       </c>
@@ -2507,7 +2511,7 @@
       <c r="K23" s="13"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>39</v>
       </c>
@@ -2524,7 +2528,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="21"/>
     </row>
-    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B25" s="9" t="str">
         <f>L6</f>
         <v>ITIISIBF</v>
@@ -2549,7 +2553,7 @@
       </c>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9" t="s">
@@ -2565,7 +2569,7 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="1:18" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
@@ -2581,7 +2585,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
       <c r="C28" s="9" t="s">
         <v>52</v>
@@ -2596,7 +2600,7 @@
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B29" s="9"/>
       <c r="C29" s="9" t="s">
         <v>43</v>
@@ -2611,7 +2615,7 @@
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10" t="str">
@@ -2627,7 +2631,7 @@
       <c r="I30" s="10"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="33" spans="2:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
         <v>44</v>
       </c>
@@ -2642,7 +2646,7 @@
       <c r="I33" s="7"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>1</v>
       </c>
@@ -2669,7 +2673,7 @@
       </c>
       <c r="J34" s="22"/>
     </row>
-    <row r="35" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>39</v>
       </c>
@@ -2686,7 +2690,7 @@
       <c r="I35" s="5"/>
       <c r="J35" s="21"/>
     </row>
-    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B36" s="9" t="str">
         <f>L5</f>
         <v>ITIISIN</v>
@@ -2712,7 +2716,7 @@
       <c r="J36" s="9"/>
       <c r="M36" s="19"/>
     </row>
-    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B37" s="9"/>
       <c r="C37" s="9" t="s">
         <v>46</v>
@@ -2729,7 +2733,7 @@
       <c r="L37" s="9"/>
       <c r="M37" s="19"/>
     </row>
-    <row r="38" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
         <v>43</v>
@@ -2746,7 +2750,7 @@
       <c r="L38" s="9"/>
       <c r="M38" s="19"/>
     </row>
-    <row r="39" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10" t="str">
@@ -2764,7 +2768,7 @@
       <c r="L39" s="9"/>
       <c r="M39" s="19"/>
     </row>
-    <row r="41" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -2777,7 +2781,7 @@
       <c r="L41" s="9"/>
       <c r="M41" s="19"/>
     </row>
-    <row r="42" spans="2:13" ht="18" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B42" s="36"/>
       <c r="C42" s="8"/>
       <c r="D42" s="37"/>
@@ -2788,7 +2792,7 @@
       <c r="I42" s="8"/>
       <c r="J42" s="35"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
       <c r="D43" s="22"/>
@@ -2799,7 +2803,7 @@
       <c r="I43" s="22"/>
       <c r="J43" s="35"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="38"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
@@ -2810,7 +2814,7 @@
       <c r="I44" s="21"/>
       <c r="J44" s="35"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -2821,7 +2825,7 @@
       <c r="I45" s="35"/>
       <c r="J45" s="35"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -2841,29 +2845,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
       <c r="H1" s="23"/>
@@ -2874,7 +2878,7 @@
       <c r="M1" s="23"/>
       <c r="N1" s="23"/>
     </row>
-    <row r="2" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" ht="22.8" x14ac:dyDescent="0.4">
       <c r="B2" s="20" t="s">
         <v>81</v>
       </c>
@@ -2888,7 +2892,7 @@
       <c r="M2" s="23"/>
       <c r="N2" s="23"/>
     </row>
-    <row r="3" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" ht="22.8" x14ac:dyDescent="0.4">
       <c r="B3" s="20"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
@@ -2900,7 +2904,7 @@
       <c r="M3" s="23"/>
       <c r="N3" s="23"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
       <c r="D4" s="25" t="s">
@@ -2909,7 +2913,7 @@
       <c r="E4" s="25"/>
       <c r="F4" s="23"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>1</v>
       </c>
@@ -2934,7 +2938,7 @@
       <c r="M5" s="55"/>
       <c r="N5" s="55"/>
     </row>
-    <row r="6" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29" t="s">
         <v>73</v>
       </c>
@@ -2973,7 +2977,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="29" t="s">
         <v>67</v>
       </c>
@@ -3008,7 +3012,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27" t="str">
         <f>H10</f>
         <v>MININDOXY</v>
@@ -3033,7 +3037,7 @@
       <c r="M8" s="58"/>
       <c r="N8" s="58"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="27" t="str">
         <f>H9</f>
         <v>MINIISORE</v>
@@ -3065,7 +3069,7 @@
       <c r="M9" s="60"/>
       <c r="N9" s="60"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F10" s="23"/>
       <c r="G10" s="60"/>
       <c r="H10" s="60" t="str">
@@ -3083,13 +3087,13 @@
       <c r="M10" s="60"/>
       <c r="N10" s="60"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F12" s="23"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F13" s="23"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F14" s="23"/>
       <c r="G14" s="54" t="s">
         <v>7</v>
@@ -3102,7 +3106,7 @@
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F15" s="23"/>
       <c r="G15" s="56" t="s">
         <v>8</v>
@@ -3129,7 +3133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F16" s="26"/>
       <c r="G16" s="57" t="s">
         <v>59</v>
@@ -3156,7 +3160,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F17" s="26"/>
       <c r="G17" s="59" t="s">
         <v>57</v>
@@ -3175,7 +3179,7 @@
       <c r="M17" s="59"/>
       <c r="N17" s="59"/>
     </row>
-    <row r="18" spans="6:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:14" x14ac:dyDescent="0.25">
       <c r="G18" s="59" t="s">
         <v>58</v>
       </c>
